--- a/biology/Médecine/La_Vie_active/La_Vie_active.xlsx
+++ b/biology/Médecine/La_Vie_active/La_Vie_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vie active est une association loi de 1901 fondée en 1964 et reconnue d'utilité publique en 2002 qui œuvre pour la prise en charge et l'accompagnement des personnes handicapées dans le Pas-de-Calais. Elle est le deuxième plus gros employeur du département. Son président est Jean-Marie Alexandre.
 </t>
@@ -511,7 +523,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Handicap</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel de l'association
  Portail des associations   Portail de la médecine   Portail du Nord-Pas-de-Calais                   </t>
